--- a/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H2">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I2">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J2">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>934.5262123110352</v>
+        <v>984.0929130440451</v>
       </c>
       <c r="R2">
-        <v>934.5262123110352</v>
+        <v>3936.37165217618</v>
       </c>
       <c r="S2">
-        <v>0.004415631114492734</v>
+        <v>0.004337821143644548</v>
       </c>
       <c r="T2">
-        <v>0.004415631114492734</v>
+        <v>0.002149940219357622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H3">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I3">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J3">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>3603.973634588362</v>
+        <v>3824.620094058839</v>
       </c>
       <c r="R3">
-        <v>3603.973634588362</v>
+        <v>22947.72056435304</v>
       </c>
       <c r="S3">
-        <v>0.01702875522062221</v>
+        <v>0.01685869056723274</v>
       </c>
       <c r="T3">
-        <v>0.01702875522062221</v>
+        <v>0.01253342716168774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H4">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I4">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J4">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>5172.421369948358</v>
+        <v>5263.948192457591</v>
       </c>
       <c r="R4">
-        <v>5172.421369948358</v>
+        <v>31583.68915474555</v>
       </c>
       <c r="S4">
-        <v>0.02443966197794515</v>
+        <v>0.02320316045937225</v>
       </c>
       <c r="T4">
-        <v>0.02443966197794515</v>
+        <v>0.01725016070368689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H5">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I5">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J5">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>5154.984254603854</v>
+        <v>5209.231235140307</v>
       </c>
       <c r="R5">
-        <v>5154.984254603854</v>
+        <v>31255.38741084184</v>
       </c>
       <c r="S5">
-        <v>0.02435727170568967</v>
+        <v>0.02296197147079126</v>
       </c>
       <c r="T5">
-        <v>0.02435727170568967</v>
+        <v>0.01707085112987833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H6">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I6">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J6">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>702.8240649698663</v>
+        <v>769.8422725282762</v>
       </c>
       <c r="R6">
-        <v>702.8240649698663</v>
+        <v>4619.053635169657</v>
       </c>
       <c r="S6">
-        <v>0.003320839767159262</v>
+        <v>0.003393417473879381</v>
       </c>
       <c r="T6">
-        <v>0.003320839767159262</v>
+        <v>0.002522802738946461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H7">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I7">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J7">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>1684.214696633651</v>
+        <v>1687.831695391834</v>
       </c>
       <c r="R7">
-        <v>1684.214696633651</v>
+        <v>6751.326781567336</v>
       </c>
       <c r="S7">
-        <v>0.007957905000385698</v>
+        <v>0.007439858491142729</v>
       </c>
       <c r="T7">
-        <v>0.007957905000385698</v>
+        <v>0.00368739292533352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H8">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J8">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>3707.851118520954</v>
+        <v>4151.728379796119</v>
       </c>
       <c r="R8">
-        <v>3707.851118520954</v>
+        <v>24910.37027877671</v>
       </c>
       <c r="S8">
-        <v>0.01751957574989732</v>
+        <v>0.01830056380839182</v>
       </c>
       <c r="T8">
-        <v>0.01751957574989732</v>
+        <v>0.01360537359622154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H9">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J9">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>14299.22189029078</v>
+        <v>16135.45182164308</v>
       </c>
       <c r="R9">
-        <v>14299.22189029078</v>
+        <v>145219.0663947877</v>
       </c>
       <c r="S9">
-        <v>0.06756374327442502</v>
+        <v>0.07112408101555816</v>
       </c>
       <c r="T9">
-        <v>0.06756374327442502</v>
+        <v>0.07931474440100587</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H10">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J10">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>20522.23694678086</v>
+        <v>22207.74360908798</v>
       </c>
       <c r="R10">
-        <v>20522.23694678086</v>
+        <v>199869.6924817918</v>
       </c>
       <c r="S10">
-        <v>0.09696745453196304</v>
+        <v>0.09789037041447256</v>
       </c>
       <c r="T10">
-        <v>0.09696745453196304</v>
+        <v>0.1091634450369249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H11">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J11">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>20453.05298299026</v>
+        <v>21976.90164128276</v>
       </c>
       <c r="R11">
-        <v>20453.05298299026</v>
+        <v>197792.1147715448</v>
       </c>
       <c r="S11">
-        <v>0.09664056069087723</v>
+        <v>0.09687283319261758</v>
       </c>
       <c r="T11">
-        <v>0.09664056069087723</v>
+        <v>0.1080287280252242</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H12">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J12">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>2788.543500537604</v>
+        <v>3247.839679015482</v>
       </c>
       <c r="R12">
-        <v>2788.543500537604</v>
+        <v>29230.55711113934</v>
       </c>
       <c r="S12">
-        <v>0.01317585240829198</v>
+        <v>0.01431627790837522</v>
       </c>
       <c r="T12">
-        <v>0.01317585240829198</v>
+        <v>0.01596494333372353</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H13">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J13">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>6682.335138892895</v>
+        <v>7120.688155757549</v>
       </c>
       <c r="R13">
-        <v>6682.335138892895</v>
+        <v>42724.1289345453</v>
       </c>
       <c r="S13">
-        <v>0.03157399607207911</v>
+        <v>0.03138755622555929</v>
       </c>
       <c r="T13">
-        <v>0.03157399607207911</v>
+        <v>0.02333476898265411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H14">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I14">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J14">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>2967.380047607942</v>
+        <v>3286.080744844194</v>
       </c>
       <c r="R14">
-        <v>2967.380047607942</v>
+        <v>19716.48446906516</v>
       </c>
       <c r="S14">
-        <v>0.01402085409069466</v>
+        <v>0.01448484217878966</v>
       </c>
       <c r="T14">
-        <v>0.01402085409069466</v>
+        <v>0.01076861299947342</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H15">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I15">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J15">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>11443.61636356457</v>
+        <v>12771.16243887475</v>
       </c>
       <c r="R15">
-        <v>11443.61636356457</v>
+        <v>114940.4619498727</v>
       </c>
       <c r="S15">
-        <v>0.05407102316832172</v>
+        <v>0.05629449996231245</v>
       </c>
       <c r="T15">
-        <v>0.05407102316832172</v>
+        <v>0.06277738582965377</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H16">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I16">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J16">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>16423.87315498572</v>
+        <v>17577.36344588236</v>
       </c>
       <c r="R16">
-        <v>16423.87315498572</v>
+        <v>158196.2710129413</v>
       </c>
       <c r="S16">
-        <v>0.07760270858994345</v>
+        <v>0.07747993893099064</v>
       </c>
       <c r="T16">
-        <v>0.07760270858994345</v>
+        <v>0.08640254418433616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H17">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I17">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J17">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>16368.50547510742</v>
+        <v>17394.65271046958</v>
       </c>
       <c r="R17">
-        <v>16368.50547510742</v>
+        <v>156551.8743942262</v>
       </c>
       <c r="S17">
-        <v>0.07734109661289329</v>
+        <v>0.0766745612265696</v>
       </c>
       <c r="T17">
-        <v>0.07734109661289329</v>
+        <v>0.08550441902250172</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H18">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I18">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J18">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>2231.66143431423</v>
+        <v>2570.655509038342</v>
       </c>
       <c r="R18">
-        <v>2231.66143431423</v>
+        <v>23135.89958134507</v>
       </c>
       <c r="S18">
-        <v>0.01054458776710231</v>
+        <v>0.01133129166192234</v>
       </c>
       <c r="T18">
-        <v>0.01054458776710231</v>
+        <v>0.01263620547451466</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H19">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I19">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J19">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>5347.849017867238</v>
+        <v>5636.003634665539</v>
       </c>
       <c r="R19">
-        <v>5347.849017867238</v>
+        <v>33816.02180799323</v>
       </c>
       <c r="S19">
-        <v>0.02526855663096647</v>
+        <v>0.02484315800678414</v>
       </c>
       <c r="T19">
-        <v>0.02526855663096647</v>
+        <v>0.01846940069886093</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H20">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I20">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J20">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>1931.033143659018</v>
+        <v>2041.770987823549</v>
       </c>
       <c r="R20">
-        <v>1931.033143659018</v>
+        <v>12250.62592694129</v>
       </c>
       <c r="S20">
-        <v>0.009124120778989511</v>
+        <v>0.009000001162557503</v>
       </c>
       <c r="T20">
-        <v>0.009124120778989511</v>
+        <v>0.00669096206352253</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H21">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I21">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J21">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>7446.974141103184</v>
+        <v>7935.224656116187</v>
       </c>
       <c r="R21">
-        <v>7446.974141103184</v>
+        <v>71417.02190504568</v>
       </c>
       <c r="S21">
-        <v>0.03518691107118316</v>
+        <v>0.03497798311177323</v>
       </c>
       <c r="T21">
-        <v>0.03518691107118316</v>
+        <v>0.03900605463803647</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H22">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I22">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J22">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>10687.89400100438</v>
+        <v>10921.50604714809</v>
       </c>
       <c r="R22">
-        <v>10687.89400100438</v>
+        <v>98293.55442433282</v>
       </c>
       <c r="S22">
-        <v>0.05050023924158036</v>
+        <v>0.04814132814473423</v>
       </c>
       <c r="T22">
-        <v>0.05050023924158036</v>
+        <v>0.05368529311597434</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H23">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I23">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J23">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>10651.86328595705</v>
+        <v>10807.98069348323</v>
       </c>
       <c r="R23">
-        <v>10651.86328595705</v>
+        <v>97271.82624134904</v>
       </c>
       <c r="S23">
-        <v>0.05032999431495923</v>
+        <v>0.04764091535551508</v>
       </c>
       <c r="T23">
-        <v>0.05032999431495923</v>
+        <v>0.05312725268993033</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H24">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I24">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J24">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>1452.261633477078</v>
+        <v>1597.249199149586</v>
       </c>
       <c r="R24">
-        <v>1452.261633477078</v>
+        <v>14375.24279234627</v>
       </c>
       <c r="S24">
-        <v>0.006861928077231</v>
+        <v>0.007040576408896761</v>
       </c>
       <c r="T24">
-        <v>0.006861928077231</v>
+        <v>0.007851370595357787</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H25">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I25">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J25">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>3480.131811599476</v>
+        <v>3501.870344051385</v>
       </c>
       <c r="R25">
-        <v>3480.131811599476</v>
+        <v>21011.22206430831</v>
       </c>
       <c r="S25">
-        <v>0.01644360330122027</v>
+        <v>0.01543602948398433</v>
       </c>
       <c r="T25">
-        <v>0.01644360330122027</v>
+        <v>0.01147576381639101</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H26">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I26">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J26">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>878.9979018125791</v>
+        <v>996.2963653933151</v>
       </c>
       <c r="R26">
-        <v>878.9979018125791</v>
+        <v>5977.77819235989</v>
       </c>
       <c r="S26">
-        <v>0.004153260158662776</v>
+        <v>0.004391613212385676</v>
       </c>
       <c r="T26">
-        <v>0.004153260158662776</v>
+        <v>0.003264901511789014</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H27">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I27">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J27">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>3389.830291819218</v>
+        <v>3872.048104618873</v>
       </c>
       <c r="R27">
-        <v>3389.830291819218</v>
+        <v>34848.43294156986</v>
       </c>
       <c r="S27">
-        <v>0.0160169291264621</v>
+        <v>0.0170677503260028</v>
       </c>
       <c r="T27">
-        <v>0.0160169291264621</v>
+        <v>0.01903327586490677</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H28">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I28">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J28">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>4865.082938906309</v>
+        <v>5329.224895586137</v>
       </c>
       <c r="R28">
-        <v>4865.082938906309</v>
+        <v>47963.02406027523</v>
       </c>
       <c r="S28">
-        <v>0.0229874896141196</v>
+        <v>0.02349089615918796</v>
       </c>
       <c r="T28">
-        <v>0.0229874896141196</v>
+        <v>0.02619611245604707</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H29">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I29">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J29">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>4848.681913873978</v>
+        <v>5273.829409064479</v>
       </c>
       <c r="R29">
-        <v>4848.681913873978</v>
+        <v>47464.4646815803</v>
       </c>
       <c r="S29">
-        <v>0.02290999486278113</v>
+        <v>0.02324671625553148</v>
       </c>
       <c r="T29">
-        <v>0.02290999486278113</v>
+        <v>0.02592381274588083</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H30">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I30">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J30">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>661.0631893611202</v>
+        <v>779.3888644859322</v>
       </c>
       <c r="R30">
-        <v>661.0631893611202</v>
+        <v>7014.499780373389</v>
       </c>
       <c r="S30">
-        <v>0.003123519864007025</v>
+        <v>0.003435498265128626</v>
       </c>
       <c r="T30">
-        <v>0.003123519864007025</v>
+        <v>0.003831130931999961</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H31">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I31">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J31">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>1584.140888763177</v>
+        <v>1708.762009384838</v>
       </c>
       <c r="R31">
-        <v>1584.140888763177</v>
+        <v>10252.57205630903</v>
       </c>
       <c r="S31">
-        <v>0.007485056819181807</v>
+        <v>0.007532118030235567</v>
       </c>
       <c r="T31">
-        <v>0.007485056819181807</v>
+        <v>0.005599678832036844</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H32">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I32">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J32">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>1043.968563535676</v>
+        <v>1125.15657382632</v>
       </c>
       <c r="R32">
-        <v>1043.968563535676</v>
+        <v>4500.62629530528</v>
       </c>
       <c r="S32">
-        <v>0.004932745610527788</v>
+        <v>0.004959621099960124</v>
       </c>
       <c r="T32">
-        <v>0.004932745610527788</v>
+        <v>0.00245812091427546</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H33">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I33">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J33">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>4026.034934876096</v>
+        <v>4372.855839300144</v>
       </c>
       <c r="R33">
-        <v>4026.034934876096</v>
+        <v>26237.13503580086</v>
       </c>
       <c r="S33">
-        <v>0.01902299249853123</v>
+        <v>0.01927528007406422</v>
       </c>
       <c r="T33">
-        <v>0.01902299249853123</v>
+        <v>0.01433001678665188</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H34">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I34">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J34">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>5778.163561868087</v>
+        <v>6018.502759769135</v>
       </c>
       <c r="R34">
-        <v>5778.163561868087</v>
+        <v>36111.01655861481</v>
       </c>
       <c r="S34">
-        <v>0.02730179043915471</v>
+        <v>0.02652919066722426</v>
       </c>
       <c r="T34">
-        <v>0.02730179043915471</v>
+        <v>0.01972286504459876</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H35">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I35">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J35">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>5758.684386197465</v>
+        <v>5955.942463470608</v>
       </c>
       <c r="R35">
-        <v>5758.684386197465</v>
+        <v>35735.65478082365</v>
       </c>
       <c r="S35">
-        <v>0.02720975144330551</v>
+        <v>0.02625342872194514</v>
       </c>
       <c r="T35">
-        <v>0.02720975144330551</v>
+        <v>0.01951785254725577</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H36">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I36">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J36">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>785.1317810662892</v>
+        <v>880.1944229688961</v>
       </c>
       <c r="R36">
-        <v>785.1317810662892</v>
+        <v>5281.166537813377</v>
       </c>
       <c r="S36">
-        <v>0.003709743264322204</v>
+        <v>0.003879842978100587</v>
       </c>
       <c r="T36">
-        <v>0.003709743264322204</v>
+        <v>0.002884430980619826</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H37">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I37">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J37">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>1881.453055428166</v>
+        <v>1929.771978245664</v>
       </c>
       <c r="R37">
-        <v>1881.453055428166</v>
+        <v>7719.087912982655</v>
       </c>
       <c r="S37">
-        <v>0.00888985514003001</v>
+        <v>0.008506316404365921</v>
       </c>
       <c r="T37">
-        <v>0.00888985514003001</v>
+        <v>0.004215958000740101</v>
       </c>
     </row>
   </sheetData>
